--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="所有商品" sheetId="1" r:id="rId1"/>
     <sheet name="商品价格" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,26 +221,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浴巾架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贝卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纸巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧蒙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三脚架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏衣篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧蒙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,12 +382,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F33" totalsRowShown="0">
-  <autoFilter ref="A1:F33"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G35" totalsRowShown="0">
+  <autoFilter ref="A1:G35"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="5" name="区域"/>
     <tableColumn id="2" name="类别"/>
+    <tableColumn id="7" name="品牌"/>
     <tableColumn id="3" name="单价"/>
     <tableColumn id="4" name="数量"/>
     <tableColumn id="6" name="价格" dataDxfId="0">
@@ -319,25 +400,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H9" totalsRowCount="1">
+  <autoFilter ref="A1:H8"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="尺寸"/>
     <tableColumn id="2" name="材料"/>
     <tableColumn id="3" name="品牌"/>
     <tableColumn id="5" name="名称"/>
     <tableColumn id="4" name="单价"/>
     <tableColumn id="6" name="数量"/>
-    <tableColumn id="7" name="列1">
+    <tableColumn id="7" name="价格" totalsRowFunction="sum">
       <calculatedColumnFormula>表2[单价]*表2[数量]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" name="免打孔"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B11:G13" totalsRowShown="0">
+  <autoFilter ref="B11:G13"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="材料"/>
+    <tableColumn id="2" name="品牌"/>
+    <tableColumn id="3" name="名称"/>
+    <tableColumn id="4" name="单价"/>
+    <tableColumn id="5" name="数量"/>
+    <tableColumn id="6" name="价格"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,6 +509,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -447,6 +561,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,15 +754,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,16 +776,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -661,19 +798,19 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
         <f>SUM(表1[价格])</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2598.3199999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -683,15 +820,15 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -701,448 +838,514 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
         <v>71</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
       <c r="E10">
+        <v>205</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
       <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>83.66</v>
       </c>
       <c r="F12">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>167.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>179</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F14">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>39</v>
-      </c>
-      <c r="F15">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>881</v>
       </c>
       <c r="F16">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="F19">
         <v>7</v>
       </c>
-      <c r="F17">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="G19">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F25">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F26">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F27">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F28">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="E33">
+      <c r="F35">
         <v>8</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G35" s="1">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
@@ -1159,15 +1362,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1187,10 +1390,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1213,12 +1419,12 @@
         <f>表2[单价]*表2[数量]</f>
         <v>410</v>
       </c>
-      <c r="I2">
-        <f>SUM(表2[列1])</f>
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2">
+        <f>SUM(表2[价格])</f>
+        <v>2598.3199999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1229,7 +1435,7 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>400</v>
@@ -1242,12 +1448,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>71</v>
@@ -1260,11 +1469,154 @@
         <v>142</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>83.66</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>表2[单价]*表2[数量]</f>
+        <v>167.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>179</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>表2[单价]*表2[数量]</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>881</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>表2[单价]*表2[数量]</f>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>表2[单价]*表2[数量]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <f>SUBTOTAL(109,表2[价格])</f>
+        <v>2598.3199999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>179</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>118</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="所有商品" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,183 +137,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>沙发吊灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感应灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微波炉架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8口POE交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏衣篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧蒙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三脚架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏衣篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧蒙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=556785243100&amp;_u=t2dmg8j26111&amp;skuId=3611495387460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=552469493463&amp;_u=t2dmg8j26111&amp;skuId=3385921557577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=547460617444&amp;_u=t2dmg8j26111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝华仕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>边几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发吊灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感应灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微波炉架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8口POE交换机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏衣篮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴巾架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸巾架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不锈钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免打孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧蒙德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三脚架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶刷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塑料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏衣篮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧蒙德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不锈钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锅架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +385,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -354,17 +413,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -382,18 +447,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H39" totalsRowShown="0">
+  <autoFilter ref="A1:H39"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="5" name="区域"/>
     <tableColumn id="2" name="类别"/>
     <tableColumn id="7" name="品牌"/>
     <tableColumn id="3" name="单价"/>
     <tableColumn id="4" name="数量"/>
-    <tableColumn id="6" name="价格" dataDxfId="0">
+    <tableColumn id="6" name="价格" dataDxfId="1">
       <calculatedColumnFormula>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,7 +831,7 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -787,8 +853,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -805,12 +874,13 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="1"/>
+      <c r="J2">
         <f>SUM(表1[价格])</f>
-        <v>2598.3199999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10059.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -827,8 +897,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -845,8 +916,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -860,8 +932,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -875,8 +948,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -890,13 +964,14 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,8 +980,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -914,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>71</v>
@@ -926,8 +1002,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -935,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>205</v>
@@ -947,8 +1024,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>410</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -956,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>400</v>
@@ -968,16 +1046,17 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>83.66</v>
@@ -989,8 +1068,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>167.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -998,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>179</v>
@@ -1010,13 +1090,14 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>19</v>
@@ -1028,8 +1109,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -1043,16 +1125,17 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>881</v>
@@ -1064,8 +1147,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>881</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1079,8 +1163,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1094,8 +1179,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1109,8 +1195,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1124,8 +1211,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1139,8 +1227,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -1154,8 +1243,9 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -1169,43 +1259,54 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>188</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G24" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>188</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="E25">
+        <v>1672</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+        <v>1672</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1214,174 +1315,275 @@
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>178</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <v>657</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>2628</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>81</v>
+      </c>
+      <c r="E30">
+        <v>530</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>530</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32">
+        <v>1909</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>1909</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G34">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
         <v>8</v>
       </c>
-      <c r="G35" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
+      <c r="G39" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H25" r:id="rId1"/>
+    <hyperlink ref="H29" r:id="rId2"/>
+    <hyperlink ref="H30" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1393,21 +1595,33 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="K1">
+        <f>83*SQRT(2)</f>
+        <v>117.3797256769669</v>
+      </c>
+      <c r="L1">
+        <f>166*SQRT(2)</f>
+        <v>234.7594513539338</v>
+      </c>
+      <c r="M1">
+        <f>235-166</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
       <c r="E2">
         <v>205</v>
@@ -1423,19 +1637,27 @@
         <f>SUM(表2[价格])</f>
         <v>2598.3199999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <f>117/SQRT(2)</f>
+        <v>82.731493398826061</v>
+      </c>
+      <c r="L2">
+        <f>235/SQRT(2)/2</f>
+        <v>83.085046789419323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>400</v>
@@ -1447,16 +1669,20 @@
         <f>表2[单价]*表2[数量]</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <f>235/0.25</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>71</v>
@@ -1469,15 +1695,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>83.66</v>
@@ -1490,15 +1716,15 @@
         <v>167.32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>179</v>
@@ -1511,15 +1737,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
       </c>
       <c r="E7">
         <v>881</v>
@@ -1532,12 +1758,12 @@
         <v>881</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -1550,21 +1776,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G9">
         <f>SUBTOTAL(109,表2[价格])</f>
         <v>2598.3199999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1576,15 +1802,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
       </c>
       <c r="E12">
         <v>179</v>
@@ -1593,15 +1819,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>118</v>

--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,7 +10,7 @@
     <sheet name="所有商品" sheetId="1" r:id="rId1"/>
     <sheet name="商品价格" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,23 +575,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -627,23 +610,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,7 +843,7 @@
       <c r="H2" s="1"/>
       <c r="J2">
         <f>SUM(表1[价格])</f>
-        <v>10059.32</v>
+        <v>13307.32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1236,12 +1202,15 @@
       <c r="C22" t="s">
         <v>28</v>
       </c>
+      <c r="E22">
+        <v>1960</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
+        <v>1960</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -1252,12 +1221,15 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
+      <c r="E23">
+        <v>1288</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="H23" s="1"/>
     </row>

--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="所有商品" sheetId="1" r:id="rId1"/>
     <sheet name="商品价格" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灯带、配灯带接头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电视柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,13 +361,135 @@
   </si>
   <si>
     <t>边几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>抢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=520632534529&amp;tracelogww=ltckbburl&amp;skuId=3103738488042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶紧买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w14210285-17120386008.33.6cd5bafbOotrwW&amp;id=37693885062&amp;scene=taobao_shop&amp;skuId=3164619351484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w14210285-17120386008.10.6cd5bafbOotrwW&amp;id=38938887352&amp;scene=taobao_shop&amp;skuId=3114026513891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=35296545707&amp;_u=t2dmg8j26111&amp;skuId=3282641604381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯 开孔7.5 39个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射灯 开孔5.5 10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方射灯 18*9 7个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.10.5f35caa7SPDdWU&amp;id=534591994280&amp;scene=taobao_shop&amp;skuId=3674089663096</t>
+  </si>
+  <si>
+    <t>雷士3W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.16.5f35caa7SPDdWU&amp;id=532603286118&amp;scene=taobao_shop&amp;skuId=3505240032102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.6.2d5822f04rY10C&amp;id=44179067880&amp;scene=taobao_shop&amp;skuId=3169367155519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射灯3W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头灯6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯5.5W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +544,22 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -447,19 +580,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H39" totalsRowShown="0">
-  <autoFilter ref="A1:H39"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I41" totalsRowShown="0">
+  <autoFilter ref="A1:I41"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="5" name="区域"/>
     <tableColumn id="2" name="类别"/>
     <tableColumn id="7" name="品牌"/>
     <tableColumn id="3" name="单价"/>
     <tableColumn id="4" name="数量"/>
-    <tableColumn id="6" name="价格" dataDxfId="1">
+    <tableColumn id="6" name="价格" dataDxfId="6">
       <calculatedColumnFormula>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="列1" dataDxfId="0"/>
+    <tableColumn id="8" name="列1" dataDxfId="5"/>
+    <tableColumn id="9" name="列2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,8 +633,42 @@
 </table>
 </file>
 
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="B15:G20" totalsRowCount="1">
+  <autoFilter ref="B15:G19"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="材料"/>
+    <tableColumn id="2" name="品牌"/>
+    <tableColumn id="3" name="名称"/>
+    <tableColumn id="4" name="单价"/>
+    <tableColumn id="5" name="数量"/>
+    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0">
+      <calculatedColumnFormula>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表3_56" displayName="表3_56" ref="I11:N16" totalsRowCount="1">
+  <autoFilter ref="I11:N15"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="材料"/>
+    <tableColumn id="2" name="品牌"/>
+    <tableColumn id="3" name="名称"/>
+    <tableColumn id="4" name="单价"/>
+    <tableColumn id="5" name="数量"/>
+    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
+      <calculatedColumnFormula>表3_56[[#This Row],[单价]]*表3_56[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,6 +743,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -610,6 +795,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,7 +999,7 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -820,10 +1022,13 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -833,20 +1038,29 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2">
+        <v>179</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="J2">
+        <v>179</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="K2">
         <f>SUM(表1[价格])</f>
-        <v>13307.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>16569.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -856,16 +1070,25 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>115</v>
+      </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -875,16 +1098,25 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4">
+        <v>279</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -899,8 +1131,9 @@
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -915,40 +1148,52 @@
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
+      <c r="E7">
+        <v>159</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>89</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -956,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>71</v>
@@ -969,8 +1214,9 @@
         <v>142</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -978,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>205</v>
@@ -991,8 +1237,9 @@
         <v>410</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>400</v>
@@ -1013,16 +1260,17 @@
         <v>800</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>83.66</v>
@@ -1035,8 +1283,9 @@
         <v>167.32</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1293,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>179</v>
@@ -1057,13 +1306,14 @@
         <v>179</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>19</v>
@@ -1076,8 +1326,9 @@
         <v>19</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -1092,16 +1343,17 @@
         <v>0</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>881</v>
@@ -1114,353 +1366,412 @@
         <v>881</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>26.9</v>
+      </c>
       <c r="F17">
         <v>39</v>
       </c>
       <c r="G17">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+        <v>1049.0999999999999</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18">
+        <v>22.9</v>
+      </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19">
+        <v>69</v>
+      </c>
       <c r="F19">
         <v>7</v>
       </c>
       <c r="G19">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>483</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="E22">
-        <v>1960</v>
+        <v>15.3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>1960</v>
+        <v>61.2</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23">
+        <v>1960</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>1960</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
         <v>1288</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>1288</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24">
-        <v>188</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>188</v>
-      </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>86</v>
       </c>
       <c r="E25">
+        <v>188</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>188</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26">
         <v>1672</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>1672</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E27">
-        <v>178</v>
+        <v>386</v>
       </c>
       <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>534</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>386</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>233</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>178</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>534</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
         <v>76</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E31">
+        <v>657</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>2628</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E29">
-        <v>657</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>2628</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>530</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>530</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E30">
-        <v>530</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>530</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>1909</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>1909</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32">
-        <v>1909</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>1909</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1470,92 +1781,139 @@
         <v>0</v>
       </c>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
         <v>0</v>
       </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H25" r:id="rId1"/>
-    <hyperlink ref="H29" r:id="rId2"/>
-    <hyperlink ref="H30" r:id="rId3"/>
+    <hyperlink ref="H26" r:id="rId1"/>
+    <hyperlink ref="H31" r:id="rId2"/>
+    <hyperlink ref="H32" r:id="rId3"/>
+    <hyperlink ref="H27" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="H4" r:id="rId7"/>
+    <hyperlink ref="H18" r:id="rId8"/>
+    <hyperlink ref="H19" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1567,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1">
         <f>83*SQRT(2)</f>
@@ -1582,18 +1940,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
       <c r="E2">
         <v>205</v>
@@ -1618,18 +1976,18 @@
         <v>83.085046789419323</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>400</v>
@@ -1646,15 +2004,15 @@
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>71</v>
@@ -1667,15 +2025,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>83.66</v>
@@ -1687,16 +2045,19 @@
         <f>表2[单价]*表2[数量]</f>
         <v>167.32</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>179</v>
@@ -1708,16 +2069,19 @@
         <f>表2[单价]*表2[数量]</f>
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
       </c>
       <c r="E7">
         <v>881</v>
@@ -1729,13 +2093,16 @@
         <f>表2[单价]*表2[数量]</f>
         <v>881</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -1748,21 +2115,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G9">
         <f>SUBTOTAL(109,表2[价格])</f>
         <v>2598.3199999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1773,16 +2140,34 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
       </c>
       <c r="E12">
         <v>179</v>
@@ -1790,31 +2175,210 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12">
+        <v>33.9</v>
+      </c>
+      <c r="M12">
+        <v>39</v>
+      </c>
+      <c r="N12">
+        <f>表3_56[[#This Row],[单价]]*表3_56[[#This Row],[数量]]</f>
+        <v>1322.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>118</v>
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13">
+        <v>20.9</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <f>表3_56[[#This Row],[单价]]*表3_56[[#This Row],[数量]]</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14">
+        <v>69</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <f>表3_56[[#This Row],[单价]]*表3_56[[#This Row],[数量]]</f>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15">
+        <v>12.9</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1">
+        <f>表3_56[[#This Row],[单价]]*表3_56[[#This Row],[数量]]</f>
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>26.9</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <f>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</f>
+        <v>1049.0999999999999</v>
+      </c>
+      <c r="N16" s="1">
+        <f>SUBTOTAL(109,表3_56[价格])</f>
+        <v>2065.6999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>22.9</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <f>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</f>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19">
+        <v>15.3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <f>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</f>
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="1">
+        <f>SUBTOTAL(109,表3_5[价格])</f>
+        <v>1822.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="所有商品" sheetId="1" r:id="rId1"/>
     <sheet name="商品价格" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,31 +173,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>洗衣机龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧蒙德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三脚架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏衣篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>花洒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗衣机龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全铜</t>
+    <t>卡贝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,19 +285,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴巾架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸巾架</t>
+    <t>欧蒙德</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,122 +293,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刷子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免打孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧蒙德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡贝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=556785243100&amp;_u=t2dmg8j26111&amp;skuId=3611495387460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=552469493463&amp;_u=t2dmg8j26111&amp;skuId=3385921557577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=547460617444&amp;_u=t2dmg8j26111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝华仕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>抢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=520632534529&amp;tracelogww=ltckbburl&amp;skuId=3103738488042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶紧买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>卡贝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三脚架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厕所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶刷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塑料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏衣篮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧蒙德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不锈钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锅架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=556785243100&amp;_u=t2dmg8j26111&amp;skuId=3611495387460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粤府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=552469493463&amp;_u=t2dmg8j26111&amp;skuId=3385921557577</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=547460617444&amp;_u=t2dmg8j26111</t>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w14210285-17120386008.33.6cd5bafbOotrwW&amp;id=37693885062&amp;scene=taobao_shop&amp;skuId=3164619351484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w14210285-17120386008.10.6cd5bafbOotrwW&amp;id=38938887352&amp;scene=taobao_shop&amp;skuId=3114026513891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=35296545707&amp;_u=t2dmg8j26111&amp;skuId=3282641604381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯 开孔7.5 39个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射灯 开孔5.5 10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方射灯 18*9 7个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.10.5f35caa7SPDdWU&amp;id=534591994280&amp;scene=taobao_shop&amp;skuId=3674089663096</t>
+  </si>
+  <si>
+    <t>雷士3W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.16.5f35caa7SPDdWU&amp;id=532603286118&amp;scene=taobao_shop&amp;skuId=3505240032102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.6.2d5822f04rY10C&amp;id=44179067880&amp;scene=taobao_shop&amp;skuId=3169367155519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射灯3W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头灯6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯5.5W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -348,148 +470,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝华仕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>抢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=520632534529&amp;tracelogww=ltckbburl&amp;skuId=3103738488042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶紧买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w14210285-17120386008.33.6cd5bafbOotrwW&amp;id=37693885062&amp;scene=taobao_shop&amp;skuId=3164619351484</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w14210285-17120386008.10.6cd5bafbOotrwW&amp;id=38938887352&amp;scene=taobao_shop&amp;skuId=3114026513891</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=35296545707&amp;_u=t2dmg8j26111&amp;skuId=3282641604381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝郎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筒灯 开孔7.5 39个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射灯 开孔5.5 10个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方射灯 18*9 7个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷士6W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.10.5f35caa7SPDdWU&amp;id=534591994280&amp;scene=taobao_shop&amp;skuId=3674089663096</t>
-  </si>
-  <si>
-    <t>雷士3W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.16.5f35caa7SPDdWU&amp;id=532603286118&amp;scene=taobao_shop&amp;skuId=3505240032102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-17295775810.6.2d5822f04rY10C&amp;id=44179067880&amp;scene=taobao_shop&amp;skuId=3169367155519</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞利浦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞利浦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双头灯</t>
+    <t>灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒灯6W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>射灯3W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双头灯6W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筒灯5.5W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯带接头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,8 +584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I41" totalsRowShown="0">
-  <autoFilter ref="A1:I41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I40" totalsRowShown="0">
+  <autoFilter ref="A1:I40"/>
   <tableColumns count="9">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="5" name="区域"/>
@@ -642,7 +646,7 @@
     <tableColumn id="3" name="名称"/>
     <tableColumn id="4" name="单价"/>
     <tableColumn id="5" name="数量"/>
-    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0">
+    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -659,7 +663,7 @@
     <tableColumn id="3" name="名称"/>
     <tableColumn id="4" name="单价"/>
     <tableColumn id="5" name="数量"/>
-    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
+    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>表3_56[[#This Row],[单价]]*表3_56[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -668,7 +672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -743,23 +747,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -795,23 +782,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -988,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1022,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -1039,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>179</v>
@@ -1052,7 +1022,7 @@
         <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2">
@@ -1071,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>115</v>
@@ -1084,7 +1054,7 @@
         <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1099,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>279</v>
@@ -1112,7 +1082,7 @@
         <v>279</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1178,7 +1148,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>89</v>
@@ -1201,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>71</v>
@@ -1224,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>205</v>
@@ -1247,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>400</v>
@@ -1264,13 +1234,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>83.66</v>
@@ -1293,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>179</v>
@@ -1347,13 +1317,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>881</v>
@@ -1376,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>26.9</v>
@@ -1389,7 +1359,7 @@
         <v>1049.0999999999999</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1401,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>22.9</v>
@@ -1414,7 +1384,7 @@
         <v>229</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1426,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19">
         <v>69</v>
@@ -1439,16 +1409,16 @@
         <v>483</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1482,7 +1452,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>15.3</v>
@@ -1539,10 +1509,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25">
         <v>188</v>
@@ -1559,10 +1529,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>1672</v>
@@ -1575,16 +1545,16 @@
         <v>1672</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
       </c>
       <c r="E27">
         <v>386</v>
@@ -1597,10 +1567,10 @@
         <v>386</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
         <v>91</v>
-      </c>
-      <c r="I27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
@@ -1665,10 +1635,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
       </c>
       <c r="E31">
         <v>657</v>
@@ -1681,16 +1651,16 @@
         <v>2628</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32">
         <v>530</v>
@@ -1703,7 +1673,7 @@
         <v>530</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -1726,13 +1696,13 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
       </c>
       <c r="E34">
         <v>1909</v>
@@ -1746,7 +1716,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -1773,6 +1743,9 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
+      <c r="D36">
+        <v>479</v>
+      </c>
       <c r="F36">
         <v>1</v>
       </c>
@@ -1790,6 +1763,9 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
+      <c r="D37">
+        <v>359</v>
+      </c>
       <c r="F37">
         <v>4</v>
       </c>
@@ -1819,7 +1795,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1836,13 +1812,13 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
@@ -1850,23 +1826,6 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41">
-        <v>8</v>
-      </c>
-      <c r="G41" s="1">
-        <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1894,7 +1853,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1904,16 +1863,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1925,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1">
         <f>83*SQRT(2)</f>
@@ -1945,13 +1904,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
       <c r="E2">
         <v>205</v>
@@ -1981,13 +1940,13 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>400</v>
@@ -2006,13 +1965,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>71</v>
@@ -2027,13 +1986,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>83.66</v>
@@ -2046,18 +2005,18 @@
         <v>167.32</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>179</v>
@@ -2070,18 +2029,18 @@
         <v>179</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
       </c>
       <c r="E7">
         <v>881</v>
@@ -2094,15 +2053,15 @@
         <v>881</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -2123,13 +2082,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2141,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -2161,13 +2120,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
       </c>
       <c r="E12">
         <v>179</v>
@@ -2176,13 +2135,13 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L12">
         <v>33.9</v>
@@ -2197,13 +2156,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>118</v>
@@ -2212,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13">
         <v>20.9</v>
@@ -2233,10 +2192,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14">
         <v>69</v>
@@ -2251,13 +2210,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -2269,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L15">
         <v>12.9</v>
@@ -2287,13 +2246,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>26.9</v>
@@ -2310,15 +2269,15 @@
         <v>2065.6999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>22.9</v>
@@ -2331,27 +2290,31 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>69</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</f>
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>752/690</f>
+        <v>1.0898550724637681</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19">
         <v>15.3</v>
@@ -2364,10 +2327,10 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G20" s="1">
         <f>SUBTOTAL(109,表3_5[价格])</f>
-        <v>1822.3</v>
+        <v>1339.3</v>
       </c>
     </row>
   </sheetData>

--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="所有商品" sheetId="1" r:id="rId1"/>
     <sheet name="商品价格" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +363,6 @@
     <t>列2</t>
   </si>
   <si>
-    <t>抢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卧室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,13 +483,17 @@
   </si>
   <si>
     <t>射灯3W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +585,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I40" totalsRowShown="0">
-  <autoFilter ref="A1:I40"/>
+  <autoFilter ref="A1:I40">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="赶紧买"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="5" name="区域"/>
@@ -672,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -747,6 +753,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -782,6 +805,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -960,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -998,7 +1038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1009,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>179</v>
@@ -1022,15 +1062,17 @@
         <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2">
         <f>SUM(表1[价格])</f>
-        <v>16569.62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>16983.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1041,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>115</v>
@@ -1054,11 +1096,13 @@
         <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1069,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>279</v>
@@ -1082,9 +1126,11 @@
         <v>279</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
@@ -1140,7 +1186,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>89</v>
@@ -1161,9 +1207,11 @@
         <v>89</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1232,9 @@
         <v>142</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -1232,7 +1282,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>58</v>
       </c>
@@ -1253,9 +1303,11 @@
         <v>167.32</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1328,9 @@
         <v>179</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -1323,22 +1377,22 @@
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="E16">
-        <v>881</v>
+        <v>1295</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1">
         <f>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</f>
-        <v>881</v>
+        <v>1295</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>26.9</v>
@@ -1359,11 +1413,13 @@
         <v>1049.0999999999999</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1427,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>22.9</v>
@@ -1384,11 +1440,13 @@
         <v>229</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>69</v>
@@ -1409,16 +1467,18 @@
         <v>483</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1452,7 +1512,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>15.3</v>
@@ -1467,7 +1527,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -1485,7 +1545,9 @@
         <v>1960</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -1507,7 +1569,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>81</v>
       </c>
@@ -1525,9 +1587,11 @@
         <v>188</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>78</v>
       </c>
@@ -1547,14 +1611,16 @@
       <c r="H26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
       </c>
       <c r="E27">
         <v>386</v>
@@ -1567,10 +1633,10 @@
         <v>386</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
         <v>90</v>
-      </c>
-      <c r="I27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
@@ -1630,7 +1696,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -1653,9 +1719,11 @@
       <c r="H31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -1675,7 +1743,9 @@
       <c r="H32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
@@ -1694,7 +1764,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>81</v>
       </c>
@@ -1715,8 +1785,8 @@
         <v>1909</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>87</v>
+      <c r="I34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -1852,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2005,7 +2075,7 @@
         <v>167.32</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -2029,7 +2099,7 @@
         <v>179</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2053,7 +2123,7 @@
         <v>881</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2138,10 +2208,10 @@
         <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12">
         <v>33.9</v>
@@ -2174,10 +2244,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13">
         <v>20.9</v>
@@ -2192,10 +2262,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14">
         <v>69</v>
@@ -2228,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15">
         <v>12.9</v>
@@ -2249,10 +2319,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>26.9</v>
@@ -2274,10 +2344,10 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17">
         <v>22.9</v>
@@ -2292,10 +2362,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>69</v>
@@ -2314,7 +2384,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19">
         <v>15.3</v>

--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="所有商品" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,6 +487,58 @@
   </si>
   <si>
     <t>老李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变色筒灯6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11总价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +600,16 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -599,11 +660,11 @@
     <tableColumn id="7" name="品牌"/>
     <tableColumn id="3" name="单价"/>
     <tableColumn id="4" name="数量"/>
-    <tableColumn id="6" name="价格" dataDxfId="6">
+    <tableColumn id="6" name="价格" dataDxfId="9">
       <calculatedColumnFormula>表1[[#This Row],[单价]]*表1[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="列1" dataDxfId="5"/>
-    <tableColumn id="9" name="列2" dataDxfId="4"/>
+    <tableColumn id="8" name="列1" dataDxfId="8"/>
+    <tableColumn id="9" name="列2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,7 +713,7 @@
     <tableColumn id="3" name="名称"/>
     <tableColumn id="4" name="单价"/>
     <tableColumn id="5" name="数量"/>
-    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>表3_5[[#This Row],[单价]]*表3_5[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -669,8 +730,28 @@
     <tableColumn id="3" name="名称"/>
     <tableColumn id="4" name="单价"/>
     <tableColumn id="5" name="数量"/>
-    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="6" name="价格" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>表3_56[[#This Row],[单价]]*表3_56[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="I20:O25" totalsRowCount="1">
+  <autoFilter ref="I20:O24"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="品牌"/>
+    <tableColumn id="2" name="名称"/>
+    <tableColumn id="8" name="数量"/>
+    <tableColumn id="3" name="单价"/>
+    <tableColumn id="5" name="价格" totalsRowFunction="sum" dataDxfId="2">
+      <calculatedColumnFormula>表6[单价]*表6[[#This Row],[数量]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="双11单价" dataDxfId="1"/>
+    <tableColumn id="10" name="双11总价" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1000,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1920,18 +2001,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1968,8 +2050,12 @@
         <f>235-166</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P1">
+        <f>112*SQRT(2)</f>
+        <v>158.39191898578665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>60</v>
       </c>
@@ -2005,7 +2091,7 @@
         <v>83.085046789419323</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>60</v>
       </c>
@@ -2033,7 +2119,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -2054,7 +2140,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -2078,7 +2164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2102,7 +2188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -2126,7 +2212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -2144,13 +2230,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G9">
         <f>SUBTOTAL(109,表2[价格])</f>
         <v>2598.3199999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -2188,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>68</v>
       </c>
@@ -2224,7 +2310,7 @@
         <v>1322.1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -2260,7 +2346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
         <v>99</v>
       </c>
@@ -2278,7 +2364,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +2400,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -2339,7 +2425,7 @@
         <v>2065.6999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>50</v>
       </c>
@@ -2360,7 +2446,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>105</v>
       </c>
@@ -2382,7 +2468,7 @@
         <v>1.0898550724637681</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>115</v>
       </c>
@@ -2397,21 +2483,227 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="G20" s="1">
         <f>SUBTOTAL(109,表3_5[价格])</f>
         <v>1339.3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>29.9</v>
+      </c>
+      <c r="M21">
+        <f>表6[单价]*表6[[#This Row],[数量]]</f>
+        <v>478.4</v>
+      </c>
+      <c r="N21">
+        <v>29.8</v>
+      </c>
+      <c r="O21">
+        <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
+        <v>476.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22">
+        <v>23</v>
+      </c>
+      <c r="L22">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="M22">
+        <f>表6[单价]*表6[[#This Row],[数量]]</f>
+        <v>915.4</v>
+      </c>
+      <c r="N22">
+        <v>35</v>
+      </c>
+      <c r="O22">
+        <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>17.8</v>
+      </c>
+      <c r="M23">
+        <f>表6[单价]*表6[[#This Row],[数量]]</f>
+        <v>142.4</v>
+      </c>
+      <c r="N23">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <f>表6[单价]*表6[[#This Row],[数量]]</f>
+        <v>200</v>
+      </c>
+      <c r="N24">
+        <v>35</v>
+      </c>
+      <c r="O24">
+        <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <f>SUM(C21:C24)</f>
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <f>SUBTOTAL(109,表6[价格])</f>
+        <v>1736.2</v>
+      </c>
+      <c r="O25">
+        <f>SUBTOTAL(109,表6[双11总价])</f>
+        <v>1584.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <f>SUM(C26:C30)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="所有商品" sheetId="1" r:id="rId1"/>
     <sheet name="商品价格" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,15 +532,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>双11单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌右边转角尺寸错，重新下单改板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌正上面门板的气撑安装，3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌每个格子中现场制作变压器盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书桌钢架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房衣柜穿衣镜1.2米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房衣柜下面抽屉拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧抽屉拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧抽屉门板安装，拉手安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫镜柜背板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫镜柜镜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫浴室柜打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客卫镜柜背板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客卫镜柜镜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客卫浴室柜打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新安装鞋柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋柜拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示柜拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房衣柜2个柜门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣柜长拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧左边侧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧两侧侧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金气撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金短拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金长拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金短拉手、中长拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机处门板调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>变色灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变色灯带转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>灯带转换器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双11单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双11总价</t>
+    <t>T5_1.2米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5_0.6米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,12 +731,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -591,10 +758,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,8 +907,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="I20:O25" totalsRowCount="1">
-  <autoFilter ref="I20:O24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="I20:O28" totalsRowCount="1">
+  <autoFilter ref="I20:O27"/>
   <tableColumns count="7">
     <tableColumn id="1" name="品牌"/>
     <tableColumn id="2" name="名称"/>
@@ -753,6 +921,34 @@
     <tableColumn id="10" name="双11总价" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23"/>
+  <sortState ref="A2:D22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="3" name="No "/>
+    <tableColumn id="1" name="内容"/>
+    <tableColumn id="5" name="资源"/>
+    <tableColumn id="6" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:C83" totalsRowShown="0">
+  <autoFilter ref="A1:C83"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2001,19 +2197,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2055,7 +2251,7 @@
         <v>158.39191898578665</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>60</v>
       </c>
@@ -2091,7 +2287,7 @@
         <v>83.085046789419323</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>60</v>
       </c>
@@ -2118,8 +2314,12 @@
         <f>235/0.25</f>
         <v>940</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3">
+        <f>909.17/39*22</f>
+        <v>512.86512820512826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -2139,8 +2339,12 @@
         <f>表2[单价]*表2[数量]</f>
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4">
+        <f>255*3</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -2163,8 +2367,14 @@
       <c r="K5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R5">
+        <v>578</v>
+      </c>
+      <c r="S5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2187,8 +2397,15 @@
       <c r="K6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R6">
+        <v>490</v>
+      </c>
+      <c r="S6">
+        <f>R6*S5/R5</f>
+        <v>424.72318339100349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -2212,7 +2429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -2230,13 +2447,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G9">
         <f>SUBTOTAL(109,表2[价格])</f>
         <v>2598.3199999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -2274,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>68</v>
       </c>
@@ -2310,7 +2527,7 @@
         <v>1322.1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -2346,7 +2563,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J14" t="s">
         <v>99</v>
       </c>
@@ -2364,7 +2581,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -2400,7 +2617,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -2504,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" t="s">
         <v>130</v>
-      </c>
-      <c r="O20" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
@@ -2521,24 +2738,24 @@
         <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L21">
-        <v>29.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M21">
         <f>表6[单价]*表6[[#This Row],[数量]]</f>
-        <v>478.4</v>
+        <v>875.59999999999991</v>
       </c>
       <c r="N21">
-        <v>29.8</v>
+        <v>35</v>
       </c>
       <c r="O21">
         <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
-        <v>476.8</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
@@ -2552,24 +2769,24 @@
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K22">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>39.799999999999997</v>
+        <v>17.8</v>
       </c>
       <c r="M22">
         <f>表6[单价]*表6[[#This Row],[数量]]</f>
-        <v>915.4</v>
+        <v>71.2</v>
       </c>
       <c r="N22">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="O22">
         <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
-        <v>805</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
@@ -2583,24 +2800,24 @@
         <v>99</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>17.8</v>
+        <v>40</v>
       </c>
       <c r="M23">
         <f>表6[单价]*表6[[#This Row],[数量]]</f>
-        <v>142.4</v>
+        <v>40</v>
       </c>
       <c r="N23">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="O23">
         <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
-        <v>128</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
@@ -2614,24 +2831,24 @@
         <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>40</v>
-      </c>
-      <c r="M24">
+        <v>14.8</v>
+      </c>
+      <c r="M24" s="1">
         <f>表6[单价]*表6[[#This Row],[数量]]</f>
-        <v>200</v>
-      </c>
-      <c r="N24">
-        <v>35</v>
-      </c>
-      <c r="O24">
+        <v>44.400000000000006</v>
+      </c>
+      <c r="N24" s="1">
+        <v>13</v>
+      </c>
+      <c r="O24" s="1">
         <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
-        <v>175</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
@@ -2639,13 +2856,28 @@
         <f>SUM(C21:C24)</f>
         <v>23</v>
       </c>
-      <c r="M25">
-        <f>SUBTOTAL(109,表6[价格])</f>
-        <v>1736.2</v>
-      </c>
-      <c r="O25">
-        <f>SUBTOTAL(109,表6[双11总价])</f>
-        <v>1584.8</v>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>8.5</v>
+      </c>
+      <c r="M25" s="1">
+        <f>表6[单价]*表6[[#This Row],[数量]]</f>
+        <v>34</v>
+      </c>
+      <c r="N25" s="1">
+        <v>8</v>
+      </c>
+      <c r="O25" s="1">
+        <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
@@ -2655,6 +2887,29 @@
       <c r="C26">
         <v>3</v>
       </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>23.8</v>
+      </c>
+      <c r="M26" s="1">
+        <f>表6[单价]*表6[[#This Row],[数量]]</f>
+        <v>23.8</v>
+      </c>
+      <c r="N26" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="O26" s="1">
+        <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
+        <v>21.4</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -2663,6 +2918,29 @@
       <c r="C27">
         <v>2</v>
       </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>19.8</v>
+      </c>
+      <c r="M27" s="1">
+        <f>表6[单价]*表6[[#This Row],[数量]]</f>
+        <v>19.8</v>
+      </c>
+      <c r="N27" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="O27" s="1">
+        <f>表6[[#This Row],[双11单价]]*表6[[#This Row],[数量]]</f>
+        <v>17.8</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -2670,6 +2948,14 @@
       </c>
       <c r="C28">
         <v>3</v>
+      </c>
+      <c r="M28">
+        <f>SUBTOTAL(109,表6[价格])</f>
+        <v>1108.8</v>
+      </c>
+      <c r="O28">
+        <f>SUBTOTAL(109,表6[双11总价])</f>
+        <v>979.19999999999993</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
@@ -2706,4 +2992,1224 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="44.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>-0.11</v>
+      </c>
+      <c r="B3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>-0.20352500000000001</v>
+      </c>
+      <c r="B4">
+        <v>-4.6475000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>-7.0737499999999995E-2</v>
+      </c>
+      <c r="B5">
+        <v>1.229647E-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>-0.10514741</v>
+      </c>
+      <c r="B6">
+        <v>-1.1307699999999999E-3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>-9.89453E-2</v>
+      </c>
+      <c r="B7">
+        <v>1.5457000000000001E-4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>-0.10020985</v>
+      </c>
+      <c r="B8">
+        <v>-1.9879999999999999E-5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>-9.9957989999999997E-2</v>
+      </c>
+      <c r="B9">
+        <v>2.5900000000000002E-6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>-0.1000084</v>
+      </c>
+      <c r="B10">
+        <v>-3.3999999999999997E-7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>-9.9998320000000002E-2</v>
+      </c>
+      <c r="B11">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>-0.10000033999999999</v>
+      </c>
+      <c r="B12">
+        <v>-1E-8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>-9.9999930000000001E-2</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>-0.10000001</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>-0.1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>-0.1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>-0.1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>-0.1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>-0.1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>-0.1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>-0.1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>-0.1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>-0.1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>-0.1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>-0.1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>-0.1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>-0.1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>-0.1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>-0.1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>-0.1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>-0.1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>-0.1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>-0.1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>-0.1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>-0.1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>-0.1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>-0.1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>-0.1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>-0.1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>-0.1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>-0.1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>-0.1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>-0.1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>-0.1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>-0.1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>-0.1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>-0.1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>-0.1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>-0.1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>-0.1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>-0.1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>-0.1</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>-0.1</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>-0.1</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>-0.1</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>-0.1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>-0.1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>-0.1</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>-0.1</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>-0.1</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>-0.1</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>-0.1</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>-0.1</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>-0.1</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>-0.1</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>-0.1</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>-0.1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>-0.1</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>-0.1</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>-0.1</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>-0.1</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>-0.1</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>-0.1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>-0.1</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>-0.1</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>-0.1</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>-0.1</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>-0.1</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>-0.1</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>-0.1</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>-0.1</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>-0.1</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>-0.1</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,10 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灯带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灯带转换器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,6 +696,14 @@
   </si>
   <si>
     <t>T5_0.6米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满999减50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯带5050芯 4000K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +732,15 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -758,11 +771,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2200,13 +2217,14 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -2339,6 +2357,10 @@
         <f>表2[单价]*表2[数量]</f>
         <v>142</v>
       </c>
+      <c r="O4">
+        <f>4*SQRT(2)</f>
+        <v>5.6568542494923806</v>
+      </c>
       <c r="Q4">
         <f>255*3</f>
         <v>765</v>
@@ -2796,6 +2818,10 @@
       <c r="C23">
         <v>6</v>
       </c>
+      <c r="E23">
+        <f>18.5*35+200+1800</f>
+        <v>2647.5</v>
+      </c>
       <c r="I23" t="s">
         <v>99</v>
       </c>
@@ -2831,7 +2857,7 @@
         <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2860,7 +2886,7 @@
         <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2891,7 +2917,7 @@
         <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2922,7 +2948,7 @@
         <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2964,6 +2990,14 @@
       </c>
       <c r="C29">
         <v>3</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="4">
+        <f>表6[[#Totals],[价格]]-50</f>
+        <v>1058.8</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
@@ -2979,8 +3013,19 @@
         <f>SUM(C26:C30)</f>
         <v>16</v>
       </c>
+      <c r="I31">
+        <f>218/7</f>
+        <v>31.142857142857142</v>
+      </c>
+      <c r="J31">
+        <f>400*400</f>
+        <v>160000</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K29:L29"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/购买列表.xlsx
+++ b/购买列表.xlsx
@@ -2217,7 +2217,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2473,6 +2473,12 @@
       <c r="G9">
         <f>SUBTOTAL(109,表2[价格])</f>
         <v>2598.3199999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="Q10">
+        <f>349*2+379+499</f>
+        <v>1576</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
